--- a/biology/Histoire de la zoologie et de la botanique/Louis_Pandellé/Louis_Pandellé.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Louis_Pandellé/Louis_Pandellé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Louis_Pandell%C3%A9</t>
+          <t>Louis_Pandellé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis Pandellé est un entomologiste français, né le 1er mars 1824 à Plaisance et mort le 27 février 1905 à Tarbes.
 Pandellé fait ses études à Aire-sur-l'Adour et entre, en 1840, au collège royal de Pau où il reçoit son baccalauréat de lettres en 1841. Il étudie la médecine à Toulouse, où il reçoit son baccalauréat en sciences. Il poursuit ses études à Paris en 1844. Il abandonne la médecine en 1848 et quitte Paris pour s’installer à Maubourguet, il se consacre dès lors à l’entomologie.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Louis_Pandell%C3%A9</t>
+          <t>Louis_Pandellé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1869. Études monographique sur les staphylins européens de la tribu des Tachyporini Erichson. Annales de la Société Entomologique de France 9 : 261-366
 1876. Hemisphaera Pandelle nov. gen., pp. 57–59. In S. de Uhagon, ed. Coleopteros de Badajoz. Ann. Soc. Espanola Hist. Nat. 5 : 45-78.
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Louis_Pandell%C3%A9</t>
+          <t>Louis_Pandellé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,7 +566,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Gouillard (2004). Histoire des entomologistes français, 1750-1950. Édition entièrement revue et augmentée. Boubée (Paris) : 287 p.  (ISBN 2-85004-109-2)
  Portail de l’entomologie   Portail de la zoologie   Portail de l’histoire de la zoologie et de la botanique   Portail de la France au XIXe siècle                  </t>
